--- a/CM_GIT/laba_7.xlsx
+++ b/CM_GIT/laba_7.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\osnov\Desktop\GIT_UNIVERSITY\ЦМ_GIT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\osnov\Desktop\GIT_UNIVERSITY\CM_GIT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB4B7A7E-4134-4987-A681-F13ED94A2280}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E04F5F6-1D42-4A41-8458-1BE1F64D36EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{47AB31DF-281F-480C-AB09-96423FD079FB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{47AB31DF-281F-480C-AB09-96423FD079FB}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
     <definedName name="solver_rbv" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_rel1" localSheetId="1" hidden="1">3</definedName>
-    <definedName name="solver_rel2" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_rel2" localSheetId="1" hidden="1">3</definedName>
     <definedName name="solver_rhs1" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_rhs1" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_rhs2" localSheetId="1" hidden="1">Лист3!$I$12</definedName>
@@ -532,7 +532,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83E2C354-A339-48CB-A1A9-B943B582A8B2}">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
@@ -839,8 +839,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0320E2F-4220-4512-89D2-BCC16238E5FE}">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1062,19 +1062,19 @@
         <v>8</v>
       </c>
       <c r="B12" s="3">
-        <v>20.297996809864021</v>
+        <v>13.295924361426149</v>
       </c>
       <c r="C12" s="3">
-        <v>7.5919971236120052</v>
+        <v>0</v>
       </c>
       <c r="D12" s="3">
-        <v>20.882000073598281</v>
+        <v>13.605333316006446</v>
       </c>
       <c r="E12" s="3">
-        <v>7.6679951456829212</v>
+        <v>0</v>
       </c>
       <c r="F12" s="3">
-        <v>21.450002237071882</v>
+        <v>13.898742380880348</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>15</v>
@@ -1085,7 +1085,7 @@
       </c>
       <c r="I12">
         <f>SUM(B12:F12)</f>
-        <v>77.88999138982912</v>
+        <v>40.800000058312946</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
@@ -1094,23 +1094,23 @@
       </c>
       <c r="B13" s="3">
         <f>B12^2</f>
-        <v>412.00867449324994</v>
+        <v>176.78160462476535</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" ref="C13:F13" si="2">C12^2</f>
-        <v>57.638420324932959</v>
+        <v>0</v>
       </c>
       <c r="D13" s="3">
         <f t="shared" si="2"/>
-        <v>436.05792707375861</v>
+        <v>185.10509463963496</v>
       </c>
       <c r="E13" s="3">
         <f t="shared" si="2"/>
-        <v>58.798149554216842</v>
+        <v>0</v>
       </c>
       <c r="F13" s="3">
         <f t="shared" si="2"/>
-        <v>460.10259597038873</v>
+        <v>193.17503977007954</v>
       </c>
       <c r="G13" s="1"/>
     </row>
@@ -1129,7 +1129,7 @@
       </c>
       <c r="B15" s="3">
         <f>SUMPRODUCT(B8:F8,B13:F13)+SUMPRODUCT(B9:F9,B12:F12)</f>
-        <v>515.4051199999883</v>
+        <v>433.4889824586092</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
